--- a/001_Chemicals.xlsx
+++ b/001_Chemicals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>Contaminant</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Carbon Dioxide</t>
-  </si>
-  <si>
     <t>Sulfur Dioxide</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
     <t>VOC - Unclassified</t>
   </si>
   <si>
+    <t>Ethylene</t>
+  </si>
+  <si>
     <t>Butane</t>
   </si>
   <si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Hydrogen Sulfide</t>
-  </si>
-  <si>
-    <t>Ethylene</t>
   </si>
   <si>
     <t>Xylene</t>
@@ -156,13 +153,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>47.0</v>
+        <v>3036.0</v>
       </c>
       <c r="C2" t="n">
-        <v>35938.0</v>
+        <v>18835.0</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -170,13 +167,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3036.0</v>
+        <v>3396.0</v>
       </c>
       <c r="C3" t="n">
-        <v>18835.0</v>
+        <v>11879.0</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -184,13 +181,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>3396.0</v>
+        <v>102.0</v>
       </c>
       <c r="C4" t="n">
-        <v>11879.0</v>
+        <v>4499.0</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -198,13 +195,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>102.0</v>
+        <v>747.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4499.0</v>
+        <v>4448.0</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -212,13 +209,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>747.0</v>
+        <v>1447.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4448.0</v>
+        <v>3530.0</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -226,13 +223,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1447.0</v>
+        <v>3332.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3530.0</v>
+        <v>3206.0</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -240,13 +237,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3332.0</v>
+        <v>1259.0</v>
       </c>
       <c r="C8" t="n">
-        <v>3206.0</v>
+        <v>1442.0</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -254,13 +251,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1259.0</v>
+        <v>86.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1442.0</v>
+        <v>1182.0</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -268,13 +265,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>86.0</v>
+        <v>1246.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1182.0</v>
+        <v>943.0</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -282,18 +279,18 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>1246.0</v>
+        <v>261.0</v>
       </c>
       <c r="C11" t="n">
-        <v>943.0</v>
+        <v>847.0</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>2637.0</v>
@@ -302,12 +299,12 @@
         <v>17528.0</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2803.0</v>
@@ -316,12 +313,12 @@
         <v>6588.0</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="n">
         <v>1371.0</v>
@@ -330,12 +327,12 @@
         <v>3116.0</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="n">
         <v>2800.0</v>
@@ -344,12 +341,12 @@
         <v>2462.0</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
         <v>738.0</v>
@@ -358,12 +355,12 @@
         <v>2122.0</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
         <v>891.0</v>
@@ -372,7 +369,7 @@
         <v>1087.0</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -386,12 +383,12 @@
         <v>504.0</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="n">
         <v>799.0</v>
@@ -400,7 +397,7 @@
         <v>498.0</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +411,7 @@
         <v>460.0</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -428,91 +425,91 @@
         <v>356.0</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>24.0</v>
+        <v>54.0</v>
       </c>
       <c r="C22" t="n">
-        <v>35900.0</v>
+        <v>4458.0</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>54.0</v>
+        <v>339.0</v>
       </c>
       <c r="C23" t="n">
-        <v>4458.0</v>
+        <v>4263.0</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>339.0</v>
+        <v>175.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4263.0</v>
+        <v>775.0</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>175.0</v>
+        <v>212.0</v>
       </c>
       <c r="C25" t="n">
-        <v>775.0</v>
+        <v>588.0</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>212.0</v>
+        <v>323.0</v>
       </c>
       <c r="C26" t="n">
-        <v>588.0</v>
+        <v>529.0</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>323.0</v>
+        <v>74.0</v>
       </c>
       <c r="C27" t="n">
-        <v>529.0</v>
+        <v>465.0</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -520,13 +517,13 @@
         <v>18</v>
       </c>
       <c r="B28" t="n">
-        <v>74.0</v>
+        <v>171.0</v>
       </c>
       <c r="C28" t="n">
-        <v>465.0</v>
+        <v>410.0</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -534,13 +531,13 @@
         <v>19</v>
       </c>
       <c r="B29" t="n">
-        <v>171.0</v>
+        <v>116.0</v>
       </c>
       <c r="C29" t="n">
-        <v>410.0</v>
+        <v>332.0</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -548,27 +545,27 @@
         <v>20</v>
       </c>
       <c r="B30" t="n">
-        <v>116.0</v>
+        <v>50.0</v>
       </c>
       <c r="C30" t="n">
-        <v>332.0</v>
+        <v>330.0</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>50.0</v>
+        <v>257.0</v>
       </c>
       <c r="C31" t="n">
-        <v>330.0</v>
+        <v>254.0</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
